--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -397,94 +397,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>id</v>
+        <v>dataPackage</v>
       </c>
       <c r="B1" t="str">
-        <v>name</v>
+        <v>number</v>
       </c>
       <c r="C1" t="str">
-        <v>column1</v>
+        <v>declaredSum</v>
       </c>
       <c r="D1" t="str">
-        <v>column2</v>
+        <v>paySum</v>
       </c>
       <c r="E1" t="str">
-        <v>column3</v>
+        <v>deliverySum</v>
       </c>
       <c r="F1" t="str">
-        <v>column4</v>
+        <v>dataTransfer</v>
+      </c>
+      <c r="G1" t="str">
+        <v>typeTransfer</v>
+      </c>
+      <c r="H1" t="str">
+        <v>codePWZ</v>
+      </c>
+      <c r="I1" t="str">
+        <v>departurePointCode</v>
+      </c>
+      <c r="J1" t="str">
+        <v>fio</v>
+      </c>
+      <c r="K1" t="str">
+        <v>phone</v>
+      </c>
+      <c r="L1" t="str">
+        <v>weightPackage</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="str">
+        <v>20230711</v>
+      </c>
+      <c r="B2" t="str">
+        <v>s952</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>189.2</v>
+      </c>
+      <c r="F2" t="str">
+        <v>20230711</v>
+      </c>
+      <c r="G2" t="str">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Заказ #1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Колонка1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Колонка2</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Колонка3</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Колонка4</v>
+      <c r="H2" t="str">
+        <v>50221</v>
+      </c>
+      <c r="I2" t="str">
+        <v>010</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Сапрыкина Ирина Сергеевна</v>
+      </c>
+      <c r="K2" t="str">
+        <v>+79032838889</v>
+      </c>
+      <c r="L2" t="str">
+        <v>3000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="str">
+        <v>20230711</v>
       </c>
       <c r="B3" t="str">
-        <v>Заказ #2</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Колонка1</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Колонка2</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Колонка3</v>
+        <v>s895</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+      <c r="E3">
+        <v>237.2</v>
       </c>
       <c r="F3" t="str">
-        <v>Колонка4</v>
+        <v>20230711</v>
+      </c>
+      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <v>01423</v>
+      </c>
+      <c r="I3" t="str">
+        <v>010</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Жемчужникова Светлана Николаевна</v>
+      </c>
+      <c r="K3" t="str">
+        <v>+7(916) 546-91-51</v>
+      </c>
+      <c r="L3" t="str">
+        <v>3000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="str">
+        <v>20230711</v>
       </c>
       <c r="B4" t="str">
-        <v>Заказ #3</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Колонка1</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Колонка2</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Колонка3</v>
+        <v>s822</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>189.2</v>
       </c>
       <c r="F4" t="str">
-        <v>Колонка4</v>
+        <v>20230711</v>
+      </c>
+      <c r="G4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <v>00981</v>
+      </c>
+      <c r="I4" t="str">
+        <v>010</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Тришина Виктория Алексеевна</v>
+      </c>
+      <c r="K4" t="str">
+        <v>+7(926) 287-16-80</v>
+      </c>
+      <c r="L4" t="str">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>20230711</v>
+      </c>
+      <c r="B5" t="str">
+        <v>s818</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>250</v>
+      </c>
+      <c r="E5">
+        <v>242</v>
+      </c>
+      <c r="F5" t="str">
+        <v>20230711</v>
+      </c>
+      <c r="G5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <v>16469</v>
+      </c>
+      <c r="I5" t="str">
+        <v>010</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Медведева Елена Николаевна</v>
+      </c>
+      <c r="K5" t="str">
+        <v>79649983096</v>
+      </c>
+      <c r="L5" t="str">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>20230711</v>
+      </c>
+      <c r="B6" t="str">
+        <v>s819</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>189.2</v>
+      </c>
+      <c r="F6" t="str">
+        <v>20230711</v>
+      </c>
+      <c r="G6" t="str">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>00180</v>
+      </c>
+      <c r="I6" t="str">
+        <v>010</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Богданова  Светлана  Геннадьевна</v>
+      </c>
+      <c r="K6" t="str">
+        <v>+7(929) 957-91-38</v>
+      </c>
+      <c r="L6" t="str">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>20230711</v>
+      </c>
+      <c r="B7" t="str">
+        <v>s972</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>162.32</v>
+      </c>
+      <c r="F7" t="str">
+        <v>20230711</v>
+      </c>
+      <c r="G7" t="str">
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <v>03361</v>
+      </c>
+      <c r="I7" t="str">
+        <v>010</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Коваленко Наталья Борисовна</v>
+      </c>
+      <c r="K7" t="str">
+        <v>+7(916) 487-40-03</v>
+      </c>
+      <c r="L7" t="str">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -397,52 +397,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:AX7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>dataPackage</v>
+        <v>Дата посылки (ГГГГММДД)</v>
       </c>
       <c r="B1" t="str">
-        <v>number</v>
+        <v>Номер заказа в ИМ</v>
       </c>
       <c r="C1" t="str">
-        <v>declaredSum</v>
+        <v>Объявленная стоимость</v>
       </c>
       <c r="D1" t="str">
-        <v>paySum</v>
+        <v>Сумма к оплате</v>
       </c>
       <c r="E1" t="str">
-        <v>deliverySum</v>
+        <v>Стоимость доставки</v>
       </c>
       <c r="F1" t="str">
-        <v>dataTransfer</v>
+        <v>Дата передачи ЗП</v>
       </c>
       <c r="G1" t="str">
-        <v>typeTransfer</v>
+        <v>Номер паллеты</v>
       </c>
       <c r="H1" t="str">
-        <v>codePWZ</v>
+        <v>Номер акта передачи</v>
       </c>
       <c r="I1" t="str">
-        <v>departurePointCode</v>
+        <v>Вид доставки</v>
       </c>
       <c r="J1" t="str">
-        <v>fio</v>
+        <v>Код ПВЗ</v>
       </c>
       <c r="K1" t="str">
-        <v>phone</v>
+        <v>Код пункта поступления</v>
       </c>
       <c r="L1" t="str">
-        <v>weightPackage</v>
+        <v>ФИО</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Номер телефона</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Доп. номер телефона</v>
+      </c>
+      <c r="O1" t="str">
+        <v>E-mail для оповещений</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Наименование организации</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Адрес</v>
+      </c>
+      <c r="R1" t="str">
+        <v>ИНН</v>
+      </c>
+      <c r="S1" t="str">
+        <v>КПП</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Расчетный счет</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Наименование банка</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Кор. счет</v>
+      </c>
+      <c r="W1" t="str">
+        <v>БИК</v>
+      </c>
+      <c r="X1" t="str">
+        <v>Вес 1-ого места</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Вес 2-ого места</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Вес 3-ого места</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>Вес 4-ого места</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>Вес 5-ого места</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>Индекс</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>Город</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>Адрес получателя</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>Время доставки, от (ЧЧ:ММ)</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>Время доставки, до (ЧЧ:ММ)</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>Дата доставки (ГГГГММДД)</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>Комментарий</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>Баркод 1-го места</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>Баркод 2-го места</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>Баркод 3-го места</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>баркод 4-го места</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>Баркод 5-го места</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>Тип отпраления ПР</v>
+      </c>
+      <c r="AP1" t="str">
+        <v>Хрупкий груз для ПР</v>
+      </c>
+      <c r="AQ1" t="str">
+        <v>Оптимизация тарифа ПР</v>
+      </c>
+      <c r="AR1" t="str">
+        <v>Строгий тип отправления ПР</v>
+      </c>
+      <c r="AS1" t="str">
+        <v>Длина, см</v>
+      </c>
+      <c r="AT1" t="str">
+        <v>Ширина, см</v>
+      </c>
+      <c r="AU1" t="str">
+        <v>Высота, см</v>
+      </c>
+      <c r="AV1" t="str">
+        <v>Тип упаковки</v>
+      </c>
+      <c r="AW1" t="str">
+        <v>Запретить изменение упаковки</v>
+      </c>
+      <c r="AX1" t="str">
+        <v>Тип выдачи</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20230711</v>
+        <v>20230716</v>
       </c>
       <c r="B2" t="str">
         <v>s952</v>
@@ -457,30 +571,144 @@
         <v>189.2</v>
       </c>
       <c r="F2" t="str">
-        <v>20230711</v>
+        <v>20230716</v>
       </c>
       <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
         <v>1</v>
       </c>
-      <c r="H2" t="str">
+      <c r="J2" t="str">
         <v>50221</v>
       </c>
-      <c r="I2" t="str">
+      <c r="K2" t="str">
         <v>010</v>
       </c>
-      <c r="J2" t="str">
+      <c r="L2" t="str">
         <v>Сапрыкина Ирина Сергеевна</v>
       </c>
-      <c r="K2" t="str">
+      <c r="M2" t="str">
         <v>+79032838889</v>
       </c>
-      <c r="L2" t="str">
+      <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <v/>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <v/>
+      </c>
+      <c r="W2" t="str">
+        <v/>
+      </c>
+      <c r="X2" t="str">
         <v>3000</v>
+      </c>
+      <c r="Y2" t="str">
+        <v/>
+      </c>
+      <c r="Z2" t="str">
+        <v/>
+      </c>
+      <c r="AA2" t="str">
+        <v/>
+      </c>
+      <c r="AB2" t="str">
+        <v/>
+      </c>
+      <c r="AC2" t="str">
+        <v/>
+      </c>
+      <c r="AD2" t="str">
+        <v/>
+      </c>
+      <c r="AE2" t="str">
+        <v/>
+      </c>
+      <c r="AF2" t="str">
+        <v/>
+      </c>
+      <c r="AG2" t="str">
+        <v/>
+      </c>
+      <c r="AH2" t="str">
+        <v/>
+      </c>
+      <c r="AI2" t="str">
+        <v/>
+      </c>
+      <c r="AJ2" t="str">
+        <v/>
+      </c>
+      <c r="AK2" t="str">
+        <v/>
+      </c>
+      <c r="AL2" t="str">
+        <v/>
+      </c>
+      <c r="AM2" t="str">
+        <v/>
+      </c>
+      <c r="AN2" t="str">
+        <v/>
+      </c>
+      <c r="AO2" t="str">
+        <v/>
+      </c>
+      <c r="AP2" t="str">
+        <v/>
+      </c>
+      <c r="AQ2" t="str">
+        <v/>
+      </c>
+      <c r="AR2" t="str">
+        <v/>
+      </c>
+      <c r="AS2" t="str">
+        <v/>
+      </c>
+      <c r="AT2" t="str">
+        <v/>
+      </c>
+      <c r="AU2" t="str">
+        <v/>
+      </c>
+      <c r="AV2" t="str">
+        <v/>
+      </c>
+      <c r="AW2" t="str">
+        <v/>
+      </c>
+      <c r="AX2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20230711</v>
+        <v>20230716</v>
       </c>
       <c r="B3" t="str">
         <v>s895</v>
@@ -495,30 +723,144 @@
         <v>237.2</v>
       </c>
       <c r="F3" t="str">
-        <v>20230711</v>
+        <v>20230716</v>
       </c>
       <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
         <v>1</v>
       </c>
-      <c r="H3" t="str">
+      <c r="J3" t="str">
         <v>01423</v>
       </c>
-      <c r="I3" t="str">
+      <c r="K3" t="str">
         <v>010</v>
       </c>
-      <c r="J3" t="str">
+      <c r="L3" t="str">
         <v>Жемчужникова Светлана Николаевна</v>
       </c>
-      <c r="K3" t="str">
+      <c r="M3" t="str">
         <v>+7(916) 546-91-51</v>
       </c>
-      <c r="L3" t="str">
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
         <v>3000</v>
+      </c>
+      <c r="Y3" t="str">
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <v/>
+      </c>
+      <c r="AB3" t="str">
+        <v/>
+      </c>
+      <c r="AC3" t="str">
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <v/>
+      </c>
+      <c r="AE3" t="str">
+        <v/>
+      </c>
+      <c r="AF3" t="str">
+        <v/>
+      </c>
+      <c r="AG3" t="str">
+        <v/>
+      </c>
+      <c r="AH3" t="str">
+        <v/>
+      </c>
+      <c r="AI3" t="str">
+        <v/>
+      </c>
+      <c r="AJ3" t="str">
+        <v/>
+      </c>
+      <c r="AK3" t="str">
+        <v/>
+      </c>
+      <c r="AL3" t="str">
+        <v/>
+      </c>
+      <c r="AM3" t="str">
+        <v/>
+      </c>
+      <c r="AN3" t="str">
+        <v/>
+      </c>
+      <c r="AO3" t="str">
+        <v/>
+      </c>
+      <c r="AP3" t="str">
+        <v/>
+      </c>
+      <c r="AQ3" t="str">
+        <v/>
+      </c>
+      <c r="AR3" t="str">
+        <v/>
+      </c>
+      <c r="AS3" t="str">
+        <v/>
+      </c>
+      <c r="AT3" t="str">
+        <v/>
+      </c>
+      <c r="AU3" t="str">
+        <v/>
+      </c>
+      <c r="AV3" t="str">
+        <v/>
+      </c>
+      <c r="AW3" t="str">
+        <v/>
+      </c>
+      <c r="AX3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20230711</v>
+        <v>20230716</v>
       </c>
       <c r="B4" t="str">
         <v>s822</v>
@@ -533,30 +875,144 @@
         <v>189.2</v>
       </c>
       <c r="F4" t="str">
-        <v>20230711</v>
+        <v>20230716</v>
       </c>
       <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
         <v>1</v>
       </c>
-      <c r="H4" t="str">
+      <c r="J4" t="str">
         <v>00981</v>
       </c>
-      <c r="I4" t="str">
+      <c r="K4" t="str">
         <v>010</v>
       </c>
-      <c r="J4" t="str">
+      <c r="L4" t="str">
         <v>Тришина Виктория Алексеевна</v>
       </c>
-      <c r="K4" t="str">
+      <c r="M4" t="str">
         <v>+7(926) 287-16-80</v>
       </c>
-      <c r="L4" t="str">
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
         <v>3000</v>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
+      <c r="Z4" t="str">
+        <v/>
+      </c>
+      <c r="AA4" t="str">
+        <v/>
+      </c>
+      <c r="AB4" t="str">
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <v/>
+      </c>
+      <c r="AE4" t="str">
+        <v/>
+      </c>
+      <c r="AF4" t="str">
+        <v/>
+      </c>
+      <c r="AG4" t="str">
+        <v/>
+      </c>
+      <c r="AH4" t="str">
+        <v/>
+      </c>
+      <c r="AI4" t="str">
+        <v/>
+      </c>
+      <c r="AJ4" t="str">
+        <v/>
+      </c>
+      <c r="AK4" t="str">
+        <v/>
+      </c>
+      <c r="AL4" t="str">
+        <v/>
+      </c>
+      <c r="AM4" t="str">
+        <v/>
+      </c>
+      <c r="AN4" t="str">
+        <v/>
+      </c>
+      <c r="AO4" t="str">
+        <v/>
+      </c>
+      <c r="AP4" t="str">
+        <v/>
+      </c>
+      <c r="AQ4" t="str">
+        <v/>
+      </c>
+      <c r="AR4" t="str">
+        <v/>
+      </c>
+      <c r="AS4" t="str">
+        <v/>
+      </c>
+      <c r="AT4" t="str">
+        <v/>
+      </c>
+      <c r="AU4" t="str">
+        <v/>
+      </c>
+      <c r="AV4" t="str">
+        <v/>
+      </c>
+      <c r="AW4" t="str">
+        <v/>
+      </c>
+      <c r="AX4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20230711</v>
+        <v>20230716</v>
       </c>
       <c r="B5" t="str">
         <v>s818</v>
@@ -571,30 +1027,144 @@
         <v>242</v>
       </c>
       <c r="F5" t="str">
-        <v>20230711</v>
+        <v>20230716</v>
       </c>
       <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
         <v>1</v>
       </c>
-      <c r="H5" t="str">
+      <c r="J5" t="str">
         <v>16469</v>
       </c>
-      <c r="I5" t="str">
+      <c r="K5" t="str">
         <v>010</v>
       </c>
-      <c r="J5" t="str">
+      <c r="L5" t="str">
         <v>Медведева Елена Николаевна</v>
       </c>
-      <c r="K5" t="str">
+      <c r="M5" t="str">
         <v>79649983096</v>
       </c>
-      <c r="L5" t="str">
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5" t="str">
         <v>3000</v>
+      </c>
+      <c r="Y5" t="str">
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <v/>
+      </c>
+      <c r="AB5" t="str">
+        <v/>
+      </c>
+      <c r="AC5" t="str">
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <v/>
+      </c>
+      <c r="AE5" t="str">
+        <v/>
+      </c>
+      <c r="AF5" t="str">
+        <v/>
+      </c>
+      <c r="AG5" t="str">
+        <v/>
+      </c>
+      <c r="AH5" t="str">
+        <v/>
+      </c>
+      <c r="AI5" t="str">
+        <v/>
+      </c>
+      <c r="AJ5" t="str">
+        <v/>
+      </c>
+      <c r="AK5" t="str">
+        <v/>
+      </c>
+      <c r="AL5" t="str">
+        <v/>
+      </c>
+      <c r="AM5" t="str">
+        <v/>
+      </c>
+      <c r="AN5" t="str">
+        <v/>
+      </c>
+      <c r="AO5" t="str">
+        <v/>
+      </c>
+      <c r="AP5" t="str">
+        <v/>
+      </c>
+      <c r="AQ5" t="str">
+        <v/>
+      </c>
+      <c r="AR5" t="str">
+        <v/>
+      </c>
+      <c r="AS5" t="str">
+        <v/>
+      </c>
+      <c r="AT5" t="str">
+        <v/>
+      </c>
+      <c r="AU5" t="str">
+        <v/>
+      </c>
+      <c r="AV5" t="str">
+        <v/>
+      </c>
+      <c r="AW5" t="str">
+        <v/>
+      </c>
+      <c r="AX5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20230711</v>
+        <v>20230716</v>
       </c>
       <c r="B6" t="str">
         <v>s819</v>
@@ -609,30 +1179,144 @@
         <v>189.2</v>
       </c>
       <c r="F6" t="str">
-        <v>20230711</v>
+        <v>20230716</v>
       </c>
       <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
         <v>1</v>
       </c>
-      <c r="H6" t="str">
+      <c r="J6" t="str">
         <v>00180</v>
       </c>
-      <c r="I6" t="str">
+      <c r="K6" t="str">
         <v>010</v>
       </c>
-      <c r="J6" t="str">
+      <c r="L6" t="str">
         <v>Богданова  Светлана  Геннадьевна</v>
       </c>
-      <c r="K6" t="str">
+      <c r="M6" t="str">
         <v>+7(929) 957-91-38</v>
       </c>
-      <c r="L6" t="str">
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
         <v>3000</v>
+      </c>
+      <c r="Y6" t="str">
+        <v/>
+      </c>
+      <c r="Z6" t="str">
+        <v/>
+      </c>
+      <c r="AA6" t="str">
+        <v/>
+      </c>
+      <c r="AB6" t="str">
+        <v/>
+      </c>
+      <c r="AC6" t="str">
+        <v/>
+      </c>
+      <c r="AD6" t="str">
+        <v/>
+      </c>
+      <c r="AE6" t="str">
+        <v/>
+      </c>
+      <c r="AF6" t="str">
+        <v/>
+      </c>
+      <c r="AG6" t="str">
+        <v/>
+      </c>
+      <c r="AH6" t="str">
+        <v/>
+      </c>
+      <c r="AI6" t="str">
+        <v/>
+      </c>
+      <c r="AJ6" t="str">
+        <v/>
+      </c>
+      <c r="AK6" t="str">
+        <v/>
+      </c>
+      <c r="AL6" t="str">
+        <v/>
+      </c>
+      <c r="AM6" t="str">
+        <v/>
+      </c>
+      <c r="AN6" t="str">
+        <v/>
+      </c>
+      <c r="AO6" t="str">
+        <v/>
+      </c>
+      <c r="AP6" t="str">
+        <v/>
+      </c>
+      <c r="AQ6" t="str">
+        <v/>
+      </c>
+      <c r="AR6" t="str">
+        <v/>
+      </c>
+      <c r="AS6" t="str">
+        <v/>
+      </c>
+      <c r="AT6" t="str">
+        <v/>
+      </c>
+      <c r="AU6" t="str">
+        <v/>
+      </c>
+      <c r="AV6" t="str">
+        <v/>
+      </c>
+      <c r="AW6" t="str">
+        <v/>
+      </c>
+      <c r="AX6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20230711</v>
+        <v>20230716</v>
       </c>
       <c r="B7" t="str">
         <v>s972</v>
@@ -647,30 +1331,144 @@
         <v>162.32</v>
       </c>
       <c r="F7" t="str">
-        <v>20230711</v>
+        <v>20230716</v>
       </c>
       <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
         <v>1</v>
       </c>
-      <c r="H7" t="str">
+      <c r="J7" t="str">
         <v>03361</v>
       </c>
-      <c r="I7" t="str">
+      <c r="K7" t="str">
         <v>010</v>
       </c>
-      <c r="J7" t="str">
+      <c r="L7" t="str">
         <v>Коваленко Наталья Борисовна</v>
       </c>
-      <c r="K7" t="str">
+      <c r="M7" t="str">
         <v>+7(916) 487-40-03</v>
       </c>
-      <c r="L7" t="str">
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
         <v>3000</v>
+      </c>
+      <c r="Y7" t="str">
+        <v/>
+      </c>
+      <c r="Z7" t="str">
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <v/>
+      </c>
+      <c r="AB7" t="str">
+        <v/>
+      </c>
+      <c r="AC7" t="str">
+        <v/>
+      </c>
+      <c r="AD7" t="str">
+        <v/>
+      </c>
+      <c r="AE7" t="str">
+        <v/>
+      </c>
+      <c r="AF7" t="str">
+        <v/>
+      </c>
+      <c r="AG7" t="str">
+        <v/>
+      </c>
+      <c r="AH7" t="str">
+        <v/>
+      </c>
+      <c r="AI7" t="str">
+        <v/>
+      </c>
+      <c r="AJ7" t="str">
+        <v/>
+      </c>
+      <c r="AK7" t="str">
+        <v/>
+      </c>
+      <c r="AL7" t="str">
+        <v/>
+      </c>
+      <c r="AM7" t="str">
+        <v/>
+      </c>
+      <c r="AN7" t="str">
+        <v/>
+      </c>
+      <c r="AO7" t="str">
+        <v/>
+      </c>
+      <c r="AP7" t="str">
+        <v/>
+      </c>
+      <c r="AQ7" t="str">
+        <v/>
+      </c>
+      <c r="AR7" t="str">
+        <v/>
+      </c>
+      <c r="AS7" t="str">
+        <v/>
+      </c>
+      <c r="AT7" t="str">
+        <v/>
+      </c>
+      <c r="AU7" t="str">
+        <v/>
+      </c>
+      <c r="AV7" t="str">
+        <v/>
+      </c>
+      <c r="AW7" t="str">
+        <v/>
+      </c>
+      <c r="AX7" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AX7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20230716</v>
+        <v>20230720</v>
       </c>
       <c r="B2" t="str">
         <v>s952</v>
@@ -571,7 +571,7 @@
         <v>189.2</v>
       </c>
       <c r="F2" t="str">
-        <v>20230716</v>
+        <v>20230720</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -708,7 +708,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20230716</v>
+        <v>20230720</v>
       </c>
       <c r="B3" t="str">
         <v>s895</v>
@@ -723,7 +723,7 @@
         <v>237.2</v>
       </c>
       <c r="F3" t="str">
-        <v>20230716</v>
+        <v>20230720</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -860,7 +860,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20230716</v>
+        <v>20230720</v>
       </c>
       <c r="B4" t="str">
         <v>s822</v>
@@ -875,7 +875,7 @@
         <v>189.2</v>
       </c>
       <c r="F4" t="str">
-        <v>20230716</v>
+        <v>20230720</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20230716</v>
+        <v>20230720</v>
       </c>
       <c r="B5" t="str">
         <v>s818</v>
@@ -1027,7 +1027,7 @@
         <v>242</v>
       </c>
       <c r="F5" t="str">
-        <v>20230716</v>
+        <v>20230720</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20230716</v>
+        <v>20230720</v>
       </c>
       <c r="B6" t="str">
         <v>s819</v>
@@ -1179,7 +1179,7 @@
         <v>189.2</v>
       </c>
       <c r="F6" t="str">
-        <v>20230716</v>
+        <v>20230720</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20230716</v>
+        <v>20230720</v>
       </c>
       <c r="B7" t="str">
         <v>s972</v>
@@ -1331,7 +1331,7 @@
         <v>162.32</v>
       </c>
       <c r="F7" t="str">
-        <v>20230716</v>
+        <v>20230720</v>
       </c>
       <c r="G7" t="str">
         <v/>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20230720</v>
+        <v>20230721</v>
       </c>
       <c r="B2" t="str">
         <v>s952</v>
@@ -571,7 +571,7 @@
         <v>189.2</v>
       </c>
       <c r="F2" t="str">
-        <v>20230720</v>
+        <v>20230721</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -708,7 +708,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20230720</v>
+        <v>20230721</v>
       </c>
       <c r="B3" t="str">
         <v>s895</v>
@@ -723,7 +723,7 @@
         <v>237.2</v>
       </c>
       <c r="F3" t="str">
-        <v>20230720</v>
+        <v>20230721</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -860,7 +860,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20230720</v>
+        <v>20230721</v>
       </c>
       <c r="B4" t="str">
         <v>s822</v>
@@ -875,7 +875,7 @@
         <v>189.2</v>
       </c>
       <c r="F4" t="str">
-        <v>20230720</v>
+        <v>20230721</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20230720</v>
+        <v>20230721</v>
       </c>
       <c r="B5" t="str">
         <v>s818</v>
@@ -1027,7 +1027,7 @@
         <v>242</v>
       </c>
       <c r="F5" t="str">
-        <v>20230720</v>
+        <v>20230721</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20230720</v>
+        <v>20230721</v>
       </c>
       <c r="B6" t="str">
         <v>s819</v>
@@ -1179,7 +1179,7 @@
         <v>189.2</v>
       </c>
       <c r="F6" t="str">
-        <v>20230720</v>
+        <v>20230721</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20230720</v>
+        <v>20230721</v>
       </c>
       <c r="B7" t="str">
         <v>s972</v>
@@ -1331,7 +1331,7 @@
         <v>162.32</v>
       </c>
       <c r="F7" t="str">
-        <v>20230720</v>
+        <v>20230721</v>
       </c>
       <c r="G7" t="str">
         <v/>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20230721</v>
+        <v>20230722</v>
       </c>
       <c r="B2" t="str">
         <v>s952</v>
@@ -571,7 +571,7 @@
         <v>189.2</v>
       </c>
       <c r="F2" t="str">
-        <v>20230721</v>
+        <v>20230722</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -708,7 +708,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20230721</v>
+        <v>20230722</v>
       </c>
       <c r="B3" t="str">
         <v>s895</v>
@@ -723,7 +723,7 @@
         <v>237.2</v>
       </c>
       <c r="F3" t="str">
-        <v>20230721</v>
+        <v>20230722</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -860,7 +860,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20230721</v>
+        <v>20230722</v>
       </c>
       <c r="B4" t="str">
         <v>s822</v>
@@ -875,7 +875,7 @@
         <v>189.2</v>
       </c>
       <c r="F4" t="str">
-        <v>20230721</v>
+        <v>20230722</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20230721</v>
+        <v>20230722</v>
       </c>
       <c r="B5" t="str">
         <v>s818</v>
@@ -1027,7 +1027,7 @@
         <v>242</v>
       </c>
       <c r="F5" t="str">
-        <v>20230721</v>
+        <v>20230722</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20230721</v>
+        <v>20230722</v>
       </c>
       <c r="B6" t="str">
         <v>s819</v>
@@ -1179,7 +1179,7 @@
         <v>189.2</v>
       </c>
       <c r="F6" t="str">
-        <v>20230721</v>
+        <v>20230722</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20230721</v>
+        <v>20230722</v>
       </c>
       <c r="B7" t="str">
         <v>s972</v>
@@ -1331,7 +1331,7 @@
         <v>162.32</v>
       </c>
       <c r="F7" t="str">
-        <v>20230721</v>
+        <v>20230722</v>
       </c>
       <c r="G7" t="str">
         <v/>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20230722</v>
+        <v>20230723</v>
       </c>
       <c r="B2" t="str">
         <v>s952</v>
@@ -571,7 +571,7 @@
         <v>189.2</v>
       </c>
       <c r="F2" t="str">
-        <v>20230722</v>
+        <v>20230723</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -708,7 +708,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20230722</v>
+        <v>20230723</v>
       </c>
       <c r="B3" t="str">
         <v>s895</v>
@@ -723,7 +723,7 @@
         <v>237.2</v>
       </c>
       <c r="F3" t="str">
-        <v>20230722</v>
+        <v>20230723</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -860,7 +860,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20230722</v>
+        <v>20230723</v>
       </c>
       <c r="B4" t="str">
         <v>s822</v>
@@ -875,7 +875,7 @@
         <v>189.2</v>
       </c>
       <c r="F4" t="str">
-        <v>20230722</v>
+        <v>20230723</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20230722</v>
+        <v>20230723</v>
       </c>
       <c r="B5" t="str">
         <v>s818</v>
@@ -1027,7 +1027,7 @@
         <v>242</v>
       </c>
       <c r="F5" t="str">
-        <v>20230722</v>
+        <v>20230723</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20230722</v>
+        <v>20230723</v>
       </c>
       <c r="B6" t="str">
         <v>s819</v>
@@ -1179,7 +1179,7 @@
         <v>189.2</v>
       </c>
       <c r="F6" t="str">
-        <v>20230722</v>
+        <v>20230723</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20230722</v>
+        <v>20230723</v>
       </c>
       <c r="B7" t="str">
         <v>s972</v>
@@ -1331,7 +1331,7 @@
         <v>162.32</v>
       </c>
       <c r="F7" t="str">
-        <v>20230722</v>
+        <v>20230723</v>
       </c>
       <c r="G7" t="str">
         <v/>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20230723</v>
+        <v>20230725</v>
       </c>
       <c r="B2" t="str">
         <v>s952</v>
@@ -571,7 +571,7 @@
         <v>189.2</v>
       </c>
       <c r="F2" t="str">
-        <v>20230723</v>
+        <v>20230725</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="str">
-        <v>50221</v>
+        <v>02353</v>
       </c>
       <c r="K2" t="str">
         <v>010</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20230723</v>
+        <v>20230725</v>
       </c>
       <c r="B3" t="str">
         <v>s895</v>
@@ -723,7 +723,7 @@
         <v>237.2</v>
       </c>
       <c r="F3" t="str">
-        <v>20230723</v>
+        <v>20230725</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -860,7 +860,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20230723</v>
+        <v>20230725</v>
       </c>
       <c r="B4" t="str">
         <v>s822</v>
@@ -875,7 +875,7 @@
         <v>189.2</v>
       </c>
       <c r="F4" t="str">
-        <v>20230723</v>
+        <v>20230725</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20230723</v>
+        <v>20230725</v>
       </c>
       <c r="B5" t="str">
         <v>s818</v>
@@ -1027,7 +1027,7 @@
         <v>242</v>
       </c>
       <c r="F5" t="str">
-        <v>20230723</v>
+        <v>20230725</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="str">
-        <v>16469</v>
+        <v>03179</v>
       </c>
       <c r="K5" t="str">
         <v>010</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20230723</v>
+        <v>20230725</v>
       </c>
       <c r="B6" t="str">
         <v>s819</v>
@@ -1179,7 +1179,7 @@
         <v>189.2</v>
       </c>
       <c r="F6" t="str">
-        <v>20230723</v>
+        <v>20230725</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20230723</v>
+        <v>20230725</v>
       </c>
       <c r="B7" t="str">
         <v>s972</v>
@@ -1331,7 +1331,7 @@
         <v>162.32</v>
       </c>
       <c r="F7" t="str">
-        <v>20230723</v>
+        <v>20230725</v>
       </c>
       <c r="G7" t="str">
         <v/>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="str">
-        <v>02353</v>
+        <v>50221</v>
       </c>
       <c r="K2" t="str">
         <v>010</v>
@@ -592,7 +592,7 @@
         <v>Сапрыкина Ирина Сергеевна</v>
       </c>
       <c r="M2" t="str">
-        <v>+79032838889</v>
+        <v>79032838889</v>
       </c>
       <c r="N2" t="str">
         <v/>
@@ -744,7 +744,7 @@
         <v>Жемчужникова Светлана Николаевна</v>
       </c>
       <c r="M3" t="str">
-        <v>+7(916) 546-91-51</v>
+        <v>79165469151</v>
       </c>
       <c r="N3" t="str">
         <v/>
@@ -896,7 +896,7 @@
         <v>Тришина Виктория Алексеевна</v>
       </c>
       <c r="M4" t="str">
-        <v>+7(926) 287-16-80</v>
+        <v>79262871680</v>
       </c>
       <c r="N4" t="str">
         <v/>
@@ -1200,7 +1200,7 @@
         <v>Богданова  Светлана  Геннадьевна</v>
       </c>
       <c r="M6" t="str">
-        <v>+7(929) 957-91-38</v>
+        <v>79299579138</v>
       </c>
       <c r="N6" t="str">
         <v/>
@@ -1352,7 +1352,7 @@
         <v>Коваленко Наталья Борисовна</v>
       </c>
       <c r="M7" t="str">
-        <v>+7(916) 487-40-03</v>
+        <v>79164874003</v>
       </c>
       <c r="N7" t="str">
         <v/>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B2" t="str">
         <v>571690352286</v>
@@ -571,7 +571,7 @@
         <v>162.32</v>
       </c>
       <c r="F2" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -708,13 +708,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B3" t="str">
         <v>241690352745</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>24369</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -723,7 +723,7 @@
         <v>162.32</v>
       </c>
       <c r="F3" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -860,7 +860,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B4" t="str">
         <v>901690535285</v>
@@ -875,7 +875,7 @@
         <v>189.2</v>
       </c>
       <c r="F4" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B5" t="str">
         <v>631689661968</v>
@@ -1027,7 +1027,7 @@
         <v>265.04</v>
       </c>
       <c r="F5" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B6" t="str">
         <v>161690545234</v>
@@ -1179,7 +1179,7 @@
         <v>265.04</v>
       </c>
       <c r="F6" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G6" t="str">
         <v/>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B7" t="str">
         <v>431689658991</v>
@@ -1331,7 +1331,7 @@
         <v>162.32</v>
       </c>
       <c r="F7" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B8" t="str">
         <v>531689755647</v>
@@ -1483,7 +1483,7 @@
         <v>162.32</v>
       </c>
       <c r="F8" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B9" t="str">
         <v>121690391384</v>
@@ -1635,7 +1635,7 @@
         <v>242</v>
       </c>
       <c r="F9" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B10" t="str">
         <v>541689744200</v>
@@ -1787,7 +1787,7 @@
         <v>189.2</v>
       </c>
       <c r="F10" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B11" t="str">
         <v>441690318018</v>
@@ -1939,7 +1939,7 @@
         <v>162.32</v>
       </c>
       <c r="F11" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B12" t="str">
         <v>871690312273</v>
@@ -2091,7 +2091,7 @@
         <v>162.32</v>
       </c>
       <c r="F12" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B13" t="str">
         <v>951690446974</v>
@@ -2243,7 +2243,7 @@
         <v>237.2</v>
       </c>
       <c r="F13" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -2380,13 +2380,13 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B14" t="str">
         <v>361690349815</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>14985</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -2395,7 +2395,7 @@
         <v>162.32</v>
       </c>
       <c r="F14" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -2532,13 +2532,13 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B15" t="str">
         <v>391690387240</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>20860</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -2547,7 +2547,7 @@
         <v>189.2</v>
       </c>
       <c r="F15" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B16" t="str">
         <v>881689603672</v>
@@ -2699,7 +2699,7 @@
         <v>162.32</v>
       </c>
       <c r="F16" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B17" t="str">
         <v>751690374517</v>
@@ -2851,7 +2851,7 @@
         <v>237.2</v>
       </c>
       <c r="F17" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B18" t="str">
         <v>371690360447</v>
@@ -3003,7 +3003,7 @@
         <v>162.32</v>
       </c>
       <c r="F18" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G18" t="str">
         <v/>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B19" t="str">
         <v>111690442484</v>
@@ -3155,7 +3155,7 @@
         <v>162.32</v>
       </c>
       <c r="F19" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B20" t="str">
         <v>261690311802</v>
@@ -3307,7 +3307,7 @@
         <v>237.2</v>
       </c>
       <c r="F20" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G20" t="str">
         <v/>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B21" t="str">
         <v>251689597057</v>
@@ -3459,7 +3459,7 @@
         <v>162.32</v>
       </c>
       <c r="F21" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B22" t="str">
         <v>161690394471</v>
@@ -3611,7 +3611,7 @@
         <v>162.32</v>
       </c>
       <c r="F22" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G22" t="str">
         <v/>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B23" t="str">
         <v>461689598701</v>
@@ -3763,7 +3763,7 @@
         <v>162.32</v>
       </c>
       <c r="F23" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G23" t="str">
         <v/>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B24" t="str">
         <v>581690312230</v>
@@ -3915,7 +3915,7 @@
         <v>162.32</v>
       </c>
       <c r="F24" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B25" t="str">
         <v>181690390620</v>
@@ -4067,7 +4067,7 @@
         <v>162.32</v>
       </c>
       <c r="F25" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -4204,13 +4204,13 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B26" t="str">
         <v>191690323531</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>18066</v>
       </c>
       <c r="D26">
         <v>200</v>
@@ -4219,7 +4219,7 @@
         <v>162.32</v>
       </c>
       <c r="F26" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G26" t="str">
         <v/>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B27" t="str">
         <v>151689625198</v>
@@ -4371,7 +4371,7 @@
         <v>242</v>
       </c>
       <c r="F27" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B28" t="str">
         <v>501689683218</v>
@@ -4523,7 +4523,7 @@
         <v>162.32</v>
       </c>
       <c r="F28" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G28" t="str">
         <v/>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B29" t="str">
         <v>291690356983</v>
@@ -4675,7 +4675,7 @@
         <v>162.32</v>
       </c>
       <c r="F29" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B30" t="str">
         <v>471690374235</v>
@@ -4827,7 +4827,7 @@
         <v>237.2</v>
       </c>
       <c r="F30" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G30" t="str">
         <v/>
@@ -4964,13 +4964,13 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B31" t="str">
         <v>221690354610</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>15554</v>
       </c>
       <c r="D31">
         <v>200</v>
@@ -4979,7 +4979,7 @@
         <v>162.32</v>
       </c>
       <c r="F31" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B32" t="str">
         <v>821689738754</v>
@@ -5131,7 +5131,7 @@
         <v>162.32</v>
       </c>
       <c r="F32" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B33" t="str">
         <v>441690310684</v>
@@ -5283,7 +5283,7 @@
         <v>237.2</v>
       </c>
       <c r="F33" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B34" t="str">
         <v>401690310256</v>
@@ -5435,7 +5435,7 @@
         <v>162.32</v>
       </c>
       <c r="F34" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B35" t="str">
         <v>681690312329</v>
@@ -5587,7 +5587,7 @@
         <v>265.04</v>
       </c>
       <c r="F35" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -5724,13 +5724,13 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B36" t="str">
         <v>461690310392</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>33872</v>
       </c>
       <c r="D36">
         <v>250</v>
@@ -5739,7 +5739,7 @@
         <v>237.2</v>
       </c>
       <c r="F36" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G36" t="str">
         <v/>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B37" t="str">
         <v>871690311939</v>
@@ -5891,7 +5891,7 @@
         <v>162.32</v>
       </c>
       <c r="F37" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B38" t="str">
         <v>911690554937</v>
@@ -6043,7 +6043,7 @@
         <v>189.2</v>
       </c>
       <c r="F38" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B39" t="str">
         <v>701690319391</v>
@@ -6195,7 +6195,7 @@
         <v>265.04</v>
       </c>
       <c r="F39" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B40" t="str">
         <v>211689606463</v>
@@ -6347,7 +6347,7 @@
         <v>189.2</v>
       </c>
       <c r="F40" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G40" t="str">
         <v/>
@@ -6484,7 +6484,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B41" t="str">
         <v>751690309156</v>
@@ -6499,7 +6499,7 @@
         <v>189.2</v>
       </c>
       <c r="F41" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G41" t="str">
         <v/>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B42" t="str">
         <v>181690464880</v>
@@ -6651,7 +6651,7 @@
         <v>162.32</v>
       </c>
       <c r="F42" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G42" t="str">
         <v/>
@@ -6788,7 +6788,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B43" t="str">
         <v>221689657219</v>
@@ -6803,7 +6803,7 @@
         <v>162.32</v>
       </c>
       <c r="F43" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G43" t="str">
         <v/>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B44" t="str">
         <v>811690379711</v>
@@ -6955,7 +6955,7 @@
         <v>237.2</v>
       </c>
       <c r="F44" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G44" t="str">
         <v/>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B45" t="str">
         <v>561690311967</v>
@@ -7107,7 +7107,7 @@
         <v>189.2</v>
       </c>
       <c r="F45" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G45" t="str">
         <v/>
@@ -7244,7 +7244,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B46" t="str">
         <v>651690364837</v>
@@ -7259,7 +7259,7 @@
         <v>162.32</v>
       </c>
       <c r="F46" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G46" t="str">
         <v/>
@@ -7396,7 +7396,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B47" t="str">
         <v>701690538900</v>
@@ -7411,7 +7411,7 @@
         <v>265.04</v>
       </c>
       <c r="F47" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G47" t="str">
         <v/>
@@ -7548,7 +7548,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B48" t="str">
         <v>421690315501</v>
@@ -7563,7 +7563,7 @@
         <v>162.32</v>
       </c>
       <c r="F48" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G48" t="str">
         <v/>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B49" t="str">
         <v>391690444733</v>
@@ -7715,7 +7715,7 @@
         <v>189.2</v>
       </c>
       <c r="F49" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G49" t="str">
         <v/>
@@ -7852,13 +7852,13 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B50" t="str">
         <v>721689667561</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>10306</v>
       </c>
       <c r="D50">
         <v>200</v>
@@ -7867,7 +7867,7 @@
         <v>162.32</v>
       </c>
       <c r="F50" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G50" t="str">
         <v/>
@@ -8004,7 +8004,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B51" t="str">
         <v>741690441040</v>
@@ -8019,7 +8019,7 @@
         <v>162.32</v>
       </c>
       <c r="F51" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G51" t="str">
         <v/>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B52" t="str">
         <v>181690445540</v>
@@ -8171,7 +8171,7 @@
         <v>162.32</v>
       </c>
       <c r="F52" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G52" t="str">
         <v/>
@@ -8308,13 +8308,13 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B53" t="str">
         <v>271690312442</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>10679</v>
       </c>
       <c r="D53">
         <v>200</v>
@@ -8323,7 +8323,7 @@
         <v>189.2</v>
       </c>
       <c r="F53" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G53" t="str">
         <v/>
@@ -8460,7 +8460,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B54" t="str">
         <v>641690358011</v>
@@ -8475,7 +8475,7 @@
         <v>162.32</v>
       </c>
       <c r="F54" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G54" t="str">
         <v/>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B55" t="str">
         <v>651690313604</v>
@@ -8627,7 +8627,7 @@
         <v>162.32</v>
       </c>
       <c r="F55" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G55" t="str">
         <v/>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B56" t="str">
         <v>941690353134</v>
@@ -8779,7 +8779,7 @@
         <v>189.2</v>
       </c>
       <c r="F56" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G56" t="str">
         <v/>
@@ -8916,7 +8916,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B57" t="str">
         <v>921690455517</v>
@@ -8931,7 +8931,7 @@
         <v>162.32</v>
       </c>
       <c r="F57" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G57" t="str">
         <v/>
@@ -9068,7 +9068,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B58" t="str">
         <v>221690444026</v>
@@ -9083,7 +9083,7 @@
         <v>162.32</v>
       </c>
       <c r="F58" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G58" t="str">
         <v/>
@@ -9220,7 +9220,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B59" t="str">
         <v>461690801820</v>
@@ -9235,7 +9235,7 @@
         <v>162.32</v>
       </c>
       <c r="F59" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G59" t="str">
         <v/>
@@ -9372,7 +9372,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B60" t="str">
         <v>781689622088</v>
@@ -9387,7 +9387,7 @@
         <v>162.32</v>
       </c>
       <c r="F60" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G60" t="str">
         <v/>
@@ -9524,7 +9524,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B61" t="str">
         <v>401689668780</v>
@@ -9539,7 +9539,7 @@
         <v>265.04</v>
       </c>
       <c r="F61" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G61" t="str">
         <v/>
@@ -9676,7 +9676,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B62" t="str">
         <v>241690466983</v>
@@ -9691,7 +9691,7 @@
         <v>189.2</v>
       </c>
       <c r="F62" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G62" t="str">
         <v/>
@@ -9828,7 +9828,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B63" t="str">
         <v>431690351809</v>
@@ -9843,7 +9843,7 @@
         <v>162.32</v>
       </c>
       <c r="F63" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G63" t="str">
         <v/>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B64" t="str">
         <v>551689596167</v>
@@ -9995,7 +9995,7 @@
         <v>237.2</v>
       </c>
       <c r="F64" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G64" t="str">
         <v/>
@@ -10132,7 +10132,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B65" t="str">
         <v>361689714698</v>
@@ -10147,7 +10147,7 @@
         <v>162.32</v>
       </c>
       <c r="F65" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G65" t="str">
         <v/>
@@ -10284,7 +10284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B66" t="str">
         <v>941690356353</v>
@@ -10299,7 +10299,7 @@
         <v>162.32</v>
       </c>
       <c r="F66" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G66" t="str">
         <v/>
@@ -10436,7 +10436,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B67" t="str">
         <v>751689599770</v>
@@ -10451,7 +10451,7 @@
         <v>162.32</v>
       </c>
       <c r="F67" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G67" t="str">
         <v/>
@@ -10588,7 +10588,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B68" t="str">
         <v>321690448478</v>
@@ -10603,7 +10603,7 @@
         <v>189.2</v>
       </c>
       <c r="F68" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G68" t="str">
         <v/>
@@ -10740,7 +10740,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B69" t="str">
         <v>881690436534</v>
@@ -10755,7 +10755,7 @@
         <v>189.2</v>
       </c>
       <c r="F69" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G69" t="str">
         <v/>
@@ -10892,7 +10892,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B70" t="str">
         <v>631689693049</v>
@@ -10907,7 +10907,7 @@
         <v>162.32</v>
       </c>
       <c r="F70" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -11044,7 +11044,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B71" t="str">
         <v>871690447894</v>
@@ -11059,7 +11059,7 @@
         <v>189.2</v>
       </c>
       <c r="F71" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G71" t="str">
         <v/>
@@ -11196,7 +11196,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B72" t="str">
         <v>451689699279</v>
@@ -11211,7 +11211,7 @@
         <v>265.04</v>
       </c>
       <c r="F72" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G72" t="str">
         <v/>
@@ -11348,13 +11348,13 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B73" t="str">
         <v>621690567683</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>11383</v>
       </c>
       <c r="D73">
         <v>300</v>
@@ -11363,7 +11363,7 @@
         <v>265.04</v>
       </c>
       <c r="F73" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G73" t="str">
         <v/>
@@ -11500,13 +11500,13 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B74" t="str">
         <v>631690389533</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>10395</v>
       </c>
       <c r="D74">
         <v>200</v>
@@ -11515,7 +11515,7 @@
         <v>162.32</v>
       </c>
       <c r="F74" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G74" t="str">
         <v/>
@@ -11652,7 +11652,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B75" t="str">
         <v>571690312771</v>
@@ -11667,7 +11667,7 @@
         <v>162.32</v>
       </c>
       <c r="F75" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G75" t="str">
         <v/>
@@ -11804,7 +11804,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B76" t="str">
         <v>561689621356</v>
@@ -11819,7 +11819,7 @@
         <v>189.2</v>
       </c>
       <c r="F76" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G76" t="str">
         <v/>
@@ -11956,13 +11956,13 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B77" t="str">
         <v>831690439656</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>21493</v>
       </c>
       <c r="D77">
         <v>250</v>
@@ -11971,7 +11971,7 @@
         <v>242</v>
       </c>
       <c r="F77" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G77" t="str">
         <v/>
@@ -12108,7 +12108,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B78" t="str">
         <v>131689666966</v>
@@ -12123,7 +12123,7 @@
         <v>189.2</v>
       </c>
       <c r="F78" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G78" t="str">
         <v/>
@@ -12260,7 +12260,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B79" t="str">
         <v>261690379551</v>
@@ -12275,7 +12275,7 @@
         <v>189.2</v>
       </c>
       <c r="F79" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G79" t="str">
         <v/>
@@ -12412,7 +12412,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B80" t="str">
         <v>301690318792</v>
@@ -12427,7 +12427,7 @@
         <v>162.32</v>
       </c>
       <c r="F80" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G80" t="str">
         <v/>
@@ -12564,7 +12564,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B81" t="str">
         <v>691690385373</v>
@@ -12579,7 +12579,7 @@
         <v>162.32</v>
       </c>
       <c r="F81" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G81" t="str">
         <v/>
@@ -12716,7 +12716,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="B82" t="str">
         <v>511690442422</v>
@@ -12731,7 +12731,7 @@
         <v>189.2</v>
       </c>
       <c r="F82" t="str">
-        <v>20230802</v>
+        <v>20230808</v>
       </c>
       <c r="G82" t="str">
         <v/>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX4"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,22 +556,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20230809</v>
+        <v>20230810</v>
       </c>
       <c r="B2" t="str">
-        <v>861690556803</v>
+        <v>951690564664</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1559</v>
       </c>
       <c r="D2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F2" t="str">
-        <v>20230809</v>
+        <v>20230810</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -583,16 +583,16 @@
         <v>1</v>
       </c>
       <c r="J2" t="str">
-        <v>04361</v>
+        <v>19749</v>
       </c>
       <c r="K2" t="str">
         <v>010</v>
       </c>
       <c r="L2" t="str">
-        <v>Вострикова Татьяна Анатольевна</v>
+        <v>Абубякяров Ильдус</v>
       </c>
       <c r="M2" t="str">
-        <v>79859956612</v>
+        <v>79299431323</v>
       </c>
       <c r="N2" t="str">
         <v/>
@@ -702,317 +702,13 @@
       <c r="AW2" t="str">
         <v/>
       </c>
-      <c r="AX2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>20230809</v>
-      </c>
-      <c r="B3" t="str">
-        <v>911690694243</v>
-      </c>
-      <c r="C3">
-        <v>10125</v>
-      </c>
-      <c r="D3">
-        <v>350</v>
-      </c>
-      <c r="E3">
-        <v>350</v>
-      </c>
-      <c r="F3" t="str">
-        <v>20230809</v>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
+      <c r="AX2">
         <v>1</v>
-      </c>
-      <c r="J3" t="str">
-        <v>04216</v>
-      </c>
-      <c r="K3" t="str">
-        <v>010</v>
-      </c>
-      <c r="L3" t="str">
-        <v>Дырина Анастасия  Михайловна</v>
-      </c>
-      <c r="M3" t="str">
-        <v>79270918918</v>
-      </c>
-      <c r="N3" t="str">
-        <v/>
-      </c>
-      <c r="O3" t="str">
-        <v/>
-      </c>
-      <c r="P3" t="str">
-        <v/>
-      </c>
-      <c r="Q3" t="str">
-        <v/>
-      </c>
-      <c r="R3" t="str">
-        <v/>
-      </c>
-      <c r="S3" t="str">
-        <v/>
-      </c>
-      <c r="T3" t="str">
-        <v/>
-      </c>
-      <c r="U3" t="str">
-        <v/>
-      </c>
-      <c r="V3" t="str">
-        <v/>
-      </c>
-      <c r="W3" t="str">
-        <v/>
-      </c>
-      <c r="X3" t="str">
-        <v>3000</v>
-      </c>
-      <c r="Y3" t="str">
-        <v/>
-      </c>
-      <c r="Z3" t="str">
-        <v/>
-      </c>
-      <c r="AA3" t="str">
-        <v/>
-      </c>
-      <c r="AB3" t="str">
-        <v/>
-      </c>
-      <c r="AC3" t="str">
-        <v/>
-      </c>
-      <c r="AD3" t="str">
-        <v/>
-      </c>
-      <c r="AE3" t="str">
-        <v/>
-      </c>
-      <c r="AF3" t="str">
-        <v/>
-      </c>
-      <c r="AG3" t="str">
-        <v/>
-      </c>
-      <c r="AH3" t="str">
-        <v/>
-      </c>
-      <c r="AI3" t="str">
-        <v/>
-      </c>
-      <c r="AJ3" t="str">
-        <v/>
-      </c>
-      <c r="AK3" t="str">
-        <v/>
-      </c>
-      <c r="AL3" t="str">
-        <v/>
-      </c>
-      <c r="AM3" t="str">
-        <v/>
-      </c>
-      <c r="AN3" t="str">
-        <v/>
-      </c>
-      <c r="AO3" t="str">
-        <v/>
-      </c>
-      <c r="AP3" t="str">
-        <v/>
-      </c>
-      <c r="AQ3" t="str">
-        <v/>
-      </c>
-      <c r="AR3" t="str">
-        <v/>
-      </c>
-      <c r="AS3" t="str">
-        <v/>
-      </c>
-      <c r="AT3" t="str">
-        <v/>
-      </c>
-      <c r="AU3" t="str">
-        <v/>
-      </c>
-      <c r="AV3" t="str">
-        <v/>
-      </c>
-      <c r="AW3" t="str">
-        <v/>
-      </c>
-      <c r="AX3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>20230809</v>
-      </c>
-      <c r="B4" t="str">
-        <v>761690553489</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>250</v>
-      </c>
-      <c r="E4">
-        <v>250</v>
-      </c>
-      <c r="F4" t="str">
-        <v>20230809</v>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v>1</v>
-      </c>
-      <c r="J4" t="str">
-        <v>17731</v>
-      </c>
-      <c r="K4" t="str">
-        <v>010</v>
-      </c>
-      <c r="L4" t="str">
-        <v>Ефремова  Юлия Владимировна</v>
-      </c>
-      <c r="M4" t="str">
-        <v>79162207953</v>
-      </c>
-      <c r="N4" t="str">
-        <v/>
-      </c>
-      <c r="O4" t="str">
-        <v/>
-      </c>
-      <c r="P4" t="str">
-        <v/>
-      </c>
-      <c r="Q4" t="str">
-        <v/>
-      </c>
-      <c r="R4" t="str">
-        <v/>
-      </c>
-      <c r="S4" t="str">
-        <v/>
-      </c>
-      <c r="T4" t="str">
-        <v/>
-      </c>
-      <c r="U4" t="str">
-        <v/>
-      </c>
-      <c r="V4" t="str">
-        <v/>
-      </c>
-      <c r="W4" t="str">
-        <v/>
-      </c>
-      <c r="X4" t="str">
-        <v>3000</v>
-      </c>
-      <c r="Y4" t="str">
-        <v/>
-      </c>
-      <c r="Z4" t="str">
-        <v/>
-      </c>
-      <c r="AA4" t="str">
-        <v/>
-      </c>
-      <c r="AB4" t="str">
-        <v/>
-      </c>
-      <c r="AC4" t="str">
-        <v/>
-      </c>
-      <c r="AD4" t="str">
-        <v/>
-      </c>
-      <c r="AE4" t="str">
-        <v/>
-      </c>
-      <c r="AF4" t="str">
-        <v/>
-      </c>
-      <c r="AG4" t="str">
-        <v/>
-      </c>
-      <c r="AH4" t="str">
-        <v/>
-      </c>
-      <c r="AI4" t="str">
-        <v/>
-      </c>
-      <c r="AJ4" t="str">
-        <v/>
-      </c>
-      <c r="AK4" t="str">
-        <v/>
-      </c>
-      <c r="AL4" t="str">
-        <v/>
-      </c>
-      <c r="AM4" t="str">
-        <v/>
-      </c>
-      <c r="AN4" t="str">
-        <v/>
-      </c>
-      <c r="AO4" t="str">
-        <v/>
-      </c>
-      <c r="AP4" t="str">
-        <v/>
-      </c>
-      <c r="AQ4" t="str">
-        <v/>
-      </c>
-      <c r="AR4" t="str">
-        <v/>
-      </c>
-      <c r="AS4" t="str">
-        <v/>
-      </c>
-      <c r="AT4" t="str">
-        <v/>
-      </c>
-      <c r="AU4" t="str">
-        <v/>
-      </c>
-      <c r="AV4" t="str">
-        <v/>
-      </c>
-      <c r="AW4" t="str">
-        <v/>
-      </c>
-      <c r="AX4" t="str">
-        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AX4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AX2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:AX3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,22 +556,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20230810</v>
+        <v>20230911</v>
       </c>
       <c r="B2" t="str">
-        <v>951690564664</v>
+        <v>781692108207</v>
       </c>
       <c r="C2">
-        <v>1559</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="E2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F2" t="str">
-        <v>20230810</v>
+        <v>20230911</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -583,16 +583,16 @@
         <v>1</v>
       </c>
       <c r="J2" t="str">
-        <v>19749</v>
+        <v>26601</v>
       </c>
       <c r="K2" t="str">
         <v>010</v>
       </c>
       <c r="L2" t="str">
-        <v>Абубякяров Ильдус</v>
+        <v>Барановская  Елена  Алексеевна</v>
       </c>
       <c r="M2" t="str">
-        <v>79299431323</v>
+        <v>79097659188</v>
       </c>
       <c r="N2" t="str">
         <v/>
@@ -703,12 +703,164 @@
         <v/>
       </c>
       <c r="AX2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>20230911</v>
+      </c>
+      <c r="B3" t="str">
+        <v>711692085080</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+      <c r="E3">
+        <v>250</v>
+      </c>
+      <c r="F3" t="str">
+        <v>20230911</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
         <v>1</v>
+      </c>
+      <c r="J3" t="str">
+        <v>04190</v>
+      </c>
+      <c r="K3" t="str">
+        <v>010</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Гапонова  Екатерина  Александровна</v>
+      </c>
+      <c r="M3" t="str">
+        <v>79262040252</v>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <v>3000</v>
+      </c>
+      <c r="Y3" t="str">
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <v/>
+      </c>
+      <c r="AB3" t="str">
+        <v/>
+      </c>
+      <c r="AC3" t="str">
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <v/>
+      </c>
+      <c r="AE3" t="str">
+        <v/>
+      </c>
+      <c r="AF3" t="str">
+        <v/>
+      </c>
+      <c r="AG3" t="str">
+        <v/>
+      </c>
+      <c r="AH3" t="str">
+        <v/>
+      </c>
+      <c r="AI3" t="str">
+        <v/>
+      </c>
+      <c r="AJ3" t="str">
+        <v/>
+      </c>
+      <c r="AK3" t="str">
+        <v/>
+      </c>
+      <c r="AL3" t="str">
+        <v/>
+      </c>
+      <c r="AM3" t="str">
+        <v/>
+      </c>
+      <c r="AN3" t="str">
+        <v/>
+      </c>
+      <c r="AO3" t="str">
+        <v/>
+      </c>
+      <c r="AP3" t="str">
+        <v/>
+      </c>
+      <c r="AQ3" t="str">
+        <v/>
+      </c>
+      <c r="AR3" t="str">
+        <v/>
+      </c>
+      <c r="AS3" t="str">
+        <v/>
+      </c>
+      <c r="AT3" t="str">
+        <v/>
+      </c>
+      <c r="AU3" t="str">
+        <v/>
+      </c>
+      <c r="AV3" t="str">
+        <v/>
+      </c>
+      <c r="AW3" t="str">
+        <v/>
+      </c>
+      <c r="AX3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AX2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AX3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -556,22 +556,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>20230911</v>
+        <v>20241004</v>
       </c>
       <c r="B2" t="str">
-        <v>781692108207</v>
+        <v>54158592</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>350</v>
-      </c>
-      <c r="E2">
-        <v>350</v>
-      </c>
       <c r="F2" t="str">
-        <v>20230911</v>
+        <v>20241004</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -583,16 +577,16 @@
         <v>1</v>
       </c>
       <c r="J2" t="str">
-        <v>26601</v>
+        <v>17428</v>
       </c>
       <c r="K2" t="str">
         <v>010</v>
       </c>
       <c r="L2" t="str">
-        <v>Барановская  Елена  Алексеевна</v>
+        <v>Кучер Марина Алексеевна</v>
       </c>
       <c r="M2" t="str">
-        <v>79097659188</v>
+        <v>79028640670</v>
       </c>
       <c r="N2" t="str">
         <v/>
@@ -624,7 +618,7 @@
       <c r="W2" t="str">
         <v/>
       </c>
-      <c r="X2" t="str">
+      <c r="X2">
         <v>3000</v>
       </c>
       <c r="Y2" t="str">
@@ -708,22 +702,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>20230911</v>
+        <v>20241004</v>
       </c>
       <c r="B3" t="str">
-        <v>711692085080</v>
+        <v>2793022427</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>250</v>
-      </c>
-      <c r="E3">
-        <v>250</v>
-      </c>
       <c r="F3" t="str">
-        <v>20230911</v>
+        <v>20241004</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -735,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="J3" t="str">
-        <v>04190</v>
+        <v>03263</v>
       </c>
       <c r="K3" t="str">
         <v>010</v>
       </c>
       <c r="L3" t="str">
-        <v>Гапонова  Екатерина  Александровна</v>
+        <v>Лобач Юлия Сергеевна</v>
       </c>
       <c r="M3" t="str">
-        <v>79262040252</v>
+        <v>79163862729</v>
       </c>
       <c r="N3" t="str">
         <v/>
@@ -776,7 +764,7 @@
       <c r="W3" t="str">
         <v/>
       </c>
-      <c r="X3" t="str">
+      <c r="X3">
         <v>3000</v>
       </c>
       <c r="Y3" t="str">
